--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Fall.121219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Fall.121219.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3375,12 +3375,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5127,12 +5127,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5735,12 +5735,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5773,12 +5773,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5811,12 +5811,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6583,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6735,12 +6735,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6887,12 +6887,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7001,12 +7001,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7151,12 +7151,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8029,12 +8029,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8105,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8147,12 +8147,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8337,12 +8337,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9485,12 +9485,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9827,12 +9827,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10055,12 +10055,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10093,12 +10093,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10169,12 +10169,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10207,12 +10207,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10245,12 +10245,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10511,12 +10511,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11385,12 +11385,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11461,12 +11461,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11841,12 +11841,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11879,12 +11879,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11993,12 +11993,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12107,12 +12107,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12297,12 +12297,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12449,12 +12449,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13209,12 +13209,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13247,12 +13247,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
